--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A687374-AD55-A344-B7EC-67FF99F05233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46829E9E-B487-6B44-B9AC-8C3A6C8C9CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Required Part</t>
   </si>
@@ -213,6 +213,14 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Commonly used in USB-UART device used in most development boards, and in prduction for the foresseable future. Will probably remove for revision 2 but decided it will be nice to develop via USB for the first version.</t>
+  </si>
+  <si>
+    <t>MCP73833T-AMI/MF
+or
+BQ24072RGTR</t>
   </si>
 </sst>
 </file>
@@ -293,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -321,9 +329,6 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,7 +714,7 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +790,7 @@
       <c r="H6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -808,7 +813,7 @@
       <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
@@ -829,18 +834,22 @@
       <c r="H8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
@@ -851,7 +860,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C11" s="8" t="s">
@@ -862,7 +871,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
@@ -873,7 +882,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
@@ -884,7 +893,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
@@ -895,7 +904,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
@@ -906,7 +915,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
@@ -917,7 +926,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
@@ -928,7 +937,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" s="8" t="s">
@@ -939,7 +948,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
@@ -950,7 +959,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="6" t="s">
@@ -961,7 +970,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
@@ -972,7 +981,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
@@ -983,10 +992,10 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="6"/>
@@ -994,7 +1003,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
@@ -1005,7 +1014,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="6" t="s">
@@ -1016,7 +1025,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
@@ -1027,7 +1036,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
@@ -1038,7 +1047,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
@@ -1049,7 +1058,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46829E9E-B487-6B44-B9AC-8C3A6C8C9CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557CCD6A-E2CF-A24A-BCBA-CFCCFDD31E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Required Part</t>
   </si>
@@ -127,9 +127,6 @@
     <t>$2.63
 $2.76
 $2.92</t>
-  </si>
-  <si>
-    <t>Settled on the ESP32-C3 due to its wifi capabilty and sleep functionaly in a cheap all in one package. Chose the WROOM over the other C3 models as it is in mass production and widely available at many vendors</t>
   </si>
   <si>
     <t>Batteries</t>
@@ -199,9 +196,6 @@
     <t>QFN-28</t>
   </si>
   <si>
-    <t>WAVE-20855-HF, Core1262</t>
-  </si>
-  <si>
     <t>waveshare.com - PN:20855
 Abra Electronics 
 Amazon.ca</t>
@@ -221,6 +215,52 @@
     <t>MCP73833T-AMI/MF
 or
 BQ24072RGTR</t>
+  </si>
+  <si>
+    <t>WAVE-20855-HF, Core1262
+or
+Heltec ht-RA62</t>
+  </si>
+  <si>
+    <t>RT9013-33GB</t>
+  </si>
+  <si>
+    <t>JLC Parts - PN:C7434207
+Mouser - PN:835-RT9013-33GB
+Digi-key - PN:1028-RT9013-33GBTR-ND - Tape &amp; Reel (TR)</t>
+  </si>
+  <si>
+    <t>$0.05
+$0.856
+$0.88</t>
+  </si>
+  <si>
+    <t>No EOL notice 
+plenty of availabliity</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ultra low voltage dropout of 250mV and quiescent current of 25uA make it a great choice for battery operation. 500 mA Ishigher than anything I could find with comparable dropout voltage. </t>
+  </si>
+  <si>
+    <t>purpose dependent</t>
+  </si>
+  <si>
+    <t>pupose dependent</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>0604 SMT</t>
+  </si>
+  <si>
+    <t>Small footprint for compact design but still hand solderble if necessary to swap comonent values duting develeopment</t>
+  </si>
+  <si>
+    <t>Settled on the ESP32-C3 due to its wifi capabilty and sleep functionaly in a cheap all in one package, There is also an abundance in documentation for developing porjects within the esp32 framework. Chose the WROOM over the other C3 models as it is in mass production and widely available at many vendors</t>
   </si>
 </sst>
 </file>
@@ -713,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +774,7 @@
   <sheetData>
     <row r="2" spans="3:9" ht="100" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="17" x14ac:dyDescent="0.2">
@@ -771,7 +811,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" ht="68" x14ac:dyDescent="0.2">
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -788,30 +828,30 @@
         <v>26</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -820,22 +860,22 @@
         <v>9</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="51" x14ac:dyDescent="0.2">
@@ -843,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
@@ -851,16 +891,28 @@
       <c r="H9" s="6"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C11" s="8" t="s">
@@ -873,36 +925,68 @@
       <c r="H11" s="6"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
     </row>
@@ -985,7 +1069,7 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
@@ -1007,7 +1091,7 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="3"/>
@@ -1018,7 +1102,7 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="3"/>
@@ -1029,7 +1113,7 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="3"/>
@@ -1040,7 +1124,7 @@
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="3"/>
@@ -1051,7 +1135,7 @@
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557CCD6A-E2CF-A24A-BCBA-CFCCFDD31E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15F07F4-40FF-3741-BE94-A612D9D9ABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Required Part</t>
   </si>
@@ -261,6 +261,35 @@
   </si>
   <si>
     <t>Settled on the ESP32-C3 due to its wifi capabilty and sleep functionaly in a cheap all in one package, There is also an abundance in documentation for developing porjects within the esp32 framework. Chose the WROOM over the other C3 models as it is in mass production and widely available at many vendors</t>
+  </si>
+  <si>
+    <t>18650 LiPo cells</t>
+  </si>
+  <si>
+    <t>Battert holders</t>
+  </si>
+  <si>
+    <t>SD Card Holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Red SMT 0805 led</t>
+  </si>
+  <si>
+    <t>0805 SMT Reverse mount</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Mouser - PN:710-150080RS75000
+Digi-key - PN:L62501TR-ND - Tape &amp; Reel (TR)</t>
+  </si>
+  <si>
+    <t>$0.28
+$0.88</t>
+  </si>
+  <si>
+    <t>Chose cheap and highly available red LED from mouser and digi-key</t>
   </si>
 </sst>
 </file>
@@ -341,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -359,6 +388,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,8 +451,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
-  <autoFilter ref="C4:I28" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
+  <autoFilter ref="C4:I31" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{AA1ED68A-0EA8-DA4A-A975-671249790F42}" name="Required Part" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="6"/>
@@ -751,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
-  <dimension ref="B2:I28"/>
+  <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A2" zoomScale="62" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,7 +853,7 @@
       <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -838,13 +870,13 @@
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -865,10 +897,10 @@
       <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -882,7 +914,7 @@
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="3"/>
@@ -901,10 +933,10 @@
       <c r="E10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -915,7 +947,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="6"/>
@@ -990,31 +1022,43 @@
       <c r="H14" s="6"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="3"/>
@@ -1024,8 +1068,8 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="8" t="s">
-        <v>16</v>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="3"/>
@@ -1035,8 +1079,8 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="6" t="s">
-        <v>17</v>
+      <c r="C19" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="3"/>
@@ -1047,7 +1091,7 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
@@ -1058,7 +1102,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="3"/>
@@ -1069,7 +1113,7 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
@@ -1079,8 +1123,8 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="10" t="s">
-        <v>21</v>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="3"/>
@@ -1090,8 +1134,8 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="6" t="s">
-        <v>29</v>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="3"/>
@@ -1102,9 +1146,11 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1113,18 +1159,18 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="6" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="3"/>
@@ -1135,7 +1181,7 @@
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="3"/>
@@ -1143,6 +1189,39 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15F07F4-40FF-3741-BE94-A612D9D9ABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940D1E5-DDC1-364E-B86C-740420246697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16080" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>Required Part</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Battery Connecter</t>
   </si>
   <si>
-    <t>Antenna Connector</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
   </si>
   <si>
     <t>NPN Transistors</t>
-  </si>
-  <si>
-    <t>PNP Transistors</t>
   </si>
   <si>
     <t>ESP32-C3-WROOM-02-N4</t>
@@ -263,9 +257,6 @@
     <t>Settled on the ESP32-C3 due to its wifi capabilty and sleep functionaly in a cheap all in one package, There is also an abundance in documentation for developing porjects within the esp32 framework. Chose the WROOM over the other C3 models as it is in mass production and widely available at many vendors</t>
   </si>
   <si>
-    <t>18650 LiPo cells</t>
-  </si>
-  <si>
     <t>Battert holders</t>
   </si>
   <si>
@@ -290,6 +281,69 @@
   </si>
   <si>
     <t>Chose cheap and highly available red LED from mouser and digi-key</t>
+  </si>
+  <si>
+    <t>General Purpose SMT Transistor</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>Widely avaiable and cheap BJT  transistor with a common footprint</t>
+  </si>
+  <si>
+    <t>Mouser - PN:621-MMBT3904-F
+Digi-key - PN:MMBT2222ATPMSTR-ND - Tape &amp; Reel (TR)</t>
+  </si>
+  <si>
+    <t>$0.145
+$0.15</t>
+  </si>
+  <si>
+    <t>4 pin tact switch</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>Cheap and widely avaiable, has footprint</t>
+  </si>
+  <si>
+    <t>Mouser - PN:611-PTS526SK15SMR2L
+Digi-key- PN:CKN12221-2-ND - Tape &amp; Reel (TR)</t>
+  </si>
+  <si>
+    <t>$0.203
+$0.21</t>
+  </si>
+  <si>
+    <t>Post PCB</t>
+  </si>
+  <si>
+    <t>Right angle SMT micro USB</t>
+  </si>
+  <si>
+    <t>Mouser - PN:649-10118192-0001LF
+Digikey - PN:2073-USB3065-30-00-ATR-ND</t>
+  </si>
+  <si>
+    <t>0.6
+$0.72</t>
+  </si>
+  <si>
+    <t>SMT Right angle</t>
+  </si>
+  <si>
+    <t>Same as what is used on the ESP32 dev board</t>
+  </si>
+  <si>
+    <t>Solder connection</t>
+  </si>
+  <si>
+    <t>For rev2.0 will purchase connectors but for rev1.0 will just solder to pads to save money</t>
+  </si>
+  <si>
+    <t>Through hole pads</t>
   </si>
 </sst>
 </file>
@@ -379,18 +433,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -404,6 +452,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,11 +505,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="0">
-  <autoFilter ref="C4:I31" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="C4:I29" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{AA1ED68A-0EA8-DA4A-A975-671249790F42}" name="Required Part" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AA1ED68A-0EA8-DA4A-A975-671249790F42}" name="Required Part" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="0"/>
     <tableColumn id="15" xr3:uid="{6CD0E10F-F0BB-F04F-8AEE-C857709CD28E}" name="Vendors" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{39DF0144-5FC6-374B-AE96-8AFBF164D8C6}" name="Unit cost" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{6D4B3BEE-02FF-8A4C-B169-44A6CECB0E18}" name="Lifecycle status" dataDxfId="3"/>
@@ -783,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
-  <dimension ref="B2:I31"/>
+  <dimension ref="C2:I29"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A2" zoomScale="62" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,11 +848,11 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="0.33203125" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="64.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="69" customWidth="1"/>
     <col min="10" max="10" width="38.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -806,7 +860,7 @@
   <sheetData>
     <row r="2" spans="3:9" ht="100" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="17" x14ac:dyDescent="0.2">
@@ -833,395 +887,439 @@
       </c>
     </row>
     <row r="5" spans="3:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="3:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="D25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940D1E5-DDC1-364E-B86C-740420246697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9A153-339F-B645-B8E8-66711BE15028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>Required Part</t>
   </si>
@@ -327,23 +327,43 @@
 Digikey - PN:2073-USB3065-30-00-ATR-ND</t>
   </si>
   <si>
-    <t>0.6
+    <t>SMT Right angle</t>
+  </si>
+  <si>
+    <t>Same as what is used on the ESP32 dev board</t>
+  </si>
+  <si>
+    <t>Solder connection</t>
+  </si>
+  <si>
+    <t>For rev2.0 will purchase connectors but for rev1.0 will just solder to pads to save money</t>
+  </si>
+  <si>
+    <t>Through hole pads</t>
+  </si>
+  <si>
+    <t>This is a rare and expensive part, but will greatly speed up developent as it will  reduce the complexity of the PCB design. For rev2.0 or further production we will dothe correct impedance matching to just use the raw sx1262 chip.</t>
+  </si>
+  <si>
+    <t>Right angle SMT microSD</t>
+  </si>
+  <si>
+    <t>Custon SMT</t>
+  </si>
+  <si>
+    <t>Digi-key - PN:2223-MSD-4-ATR-ND - Tape &amp; Reel (TR)
+Mouser - PN:640-MEM20610118800A</t>
+  </si>
+  <si>
+    <t>$0.5
+$1.74</t>
+  </si>
+  <si>
+    <t>Chose cheap and highly available SD card port from mouser and digi-key</t>
+  </si>
+  <si>
+    <t>$0.6
 $0.72</t>
-  </si>
-  <si>
-    <t>SMT Right angle</t>
-  </si>
-  <si>
-    <t>Same as what is used on the ESP32 dev board</t>
-  </si>
-  <si>
-    <t>Solder connection</t>
-  </si>
-  <si>
-    <t>For rev2.0 will purchase connectors but for rev1.0 will just solder to pads to save money</t>
-  </si>
-  <si>
-    <t>Through hole pads</t>
   </si>
 </sst>
 </file>
@@ -839,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
   <dimension ref="C2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
@@ -897,7 +917,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="3:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
@@ -939,7 +959,9 @@
       <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
@@ -1116,7 +1138,7 @@
       <c r="H16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1159,22 +1181,22 @@
         <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="34" x14ac:dyDescent="0.2">
@@ -1182,22 +1204,22 @@
         <v>18</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="34" x14ac:dyDescent="0.2">
@@ -1211,16 +1233,16 @@
         <v>78</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
@@ -1310,16 +1332,28 @@
       <c r="H28" s="5"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/fLoRa/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9A153-339F-B645-B8E8-66711BE15028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39318DB-3F95-4F4A-94A5-386D162CADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
+    <workbookView xWindow="55200" yWindow="500" windowWidth="16800" windowHeight="18960" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Required Part</t>
   </si>
@@ -65,15 +65,9 @@
     <t>LoRa Module</t>
   </si>
   <si>
-    <t>USB-UART Interface</t>
-  </si>
-  <si>
     <t>IC's</t>
   </si>
   <si>
-    <t>Charge Controller</t>
-  </si>
-  <si>
     <t>Voltage Regulator</t>
   </si>
   <si>
@@ -107,26 +101,10 @@
     <t>NPN Transistors</t>
   </si>
   <si>
-    <t>ESP32-C3-WROOM-02-N4</t>
-  </si>
-  <si>
     <t>Mass Production</t>
   </si>
   <si>
-    <t>JLC Parts - PN:C2934560
-Mouser - PN:356-ESP32C3WROOM02N4
-Digi-key - PN:1965-ESP32-C3-WROOM-02-N4CT-ND - Cut Tape (CT)</t>
-  </si>
-  <si>
-    <t>$2.63
-$2.76
-$2.92</t>
-  </si>
-  <si>
     <t>Batteries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar Panel </t>
   </si>
   <si>
     <t>Antennas</t>
@@ -170,26 +148,6 @@
     <t>Custom SMT</t>
   </si>
   <si>
-    <t>CP2102N-A02-GQFN28R</t>
-  </si>
-  <si>
-    <t>JLC Parts - PN:C964632
-Mouser - PN:634-CP2102NA02QFN28R
-Digi-key - PN:336-5890-2-ND - Tape &amp; Reel (TR)</t>
-  </si>
-  <si>
-    <t>$1.914
-$5.10
-$7.15</t>
-  </si>
-  <si>
-    <t>Mass Production
-Until at least 2030</t>
-  </si>
-  <si>
-    <t>QFN-28</t>
-  </si>
-  <si>
     <t>waveshare.com - PN:20855
 Abra Electronics 
 Amazon.ca</t>
@@ -203,14 +161,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Commonly used in USB-UART device used in most development boards, and in prduction for the foresseable future. Will probably remove for revision 2 but decided it will be nice to develop via USB for the first version.</t>
-  </si>
-  <si>
-    <t>MCP73833T-AMI/MF
-or
-BQ24072RGTR</t>
-  </si>
-  <si>
     <t>WAVE-20855-HF, Core1262
 or
 Heltec ht-RA62</t>
@@ -254,9 +204,6 @@
     <t>Small footprint for compact design but still hand solderble if necessary to swap comonent values duting develeopment</t>
   </si>
   <si>
-    <t>Settled on the ESP32-C3 due to its wifi capabilty and sleep functionaly in a cheap all in one package, There is also an abundance in documentation for developing porjects within the esp32 framework. Chose the WROOM over the other C3 models as it is in mass production and widely available at many vendors</t>
-  </si>
-  <si>
     <t>Battert holders</t>
   </si>
   <si>
@@ -364,6 +311,28 @@
   <si>
     <t>$0.6
 $0.72</t>
+  </si>
+  <si>
+    <t>Solar Panel  W. incorporated charge controller</t>
+  </si>
+  <si>
+    <t>6 Pin programming header</t>
+  </si>
+  <si>
+    <t>ESP32-S3-MINI-1-N8</t>
+  </si>
+  <si>
+    <t>JLC Parts - PN:C2913206
+Mouser - PN:356-ESP32-S3-MINI1N8
+Digi-key - PN:1965-ESP32-S3-MINI-1-N8TR-ND</t>
+  </si>
+  <si>
+    <t>$3.675
+$4.50
+$4.76</t>
+  </si>
+  <si>
+    <t>Settled on the ESP32-S3 due to its wifi capabilty and sleep functionaly in a cheap all in one package, There is also an abundance in documentation for developing porjects within the esp32 framework. Decided on the S# as it has plenty of Spare GPIO for future expansion and will need the extra power to support the web-app</t>
   </si>
 </sst>
 </file>
@@ -525,16 +494,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="C4:I29" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="C4:I28" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{AA1ED68A-0EA8-DA4A-A975-671249790F42}" name="Required Part" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{6CD0E10F-F0BB-F04F-8AEE-C857709CD28E}" name="Vendors" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{39DF0144-5FC6-374B-AE96-8AFBF164D8C6}" name="Unit cost" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{6D4B3BEE-02FF-8A4C-B169-44A6CECB0E18}" name="Lifecycle status" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{923E1ADB-9518-3D40-B106-467A9B15DBAE}" name="Footprint" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0E716DA4-42E5-AB4F-B606-C4F424941A6A}" name="Justification" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{6CD0E10F-F0BB-F04F-8AEE-C857709CD28E}" name="Vendors" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{39DF0144-5FC6-374B-AE96-8AFBF164D8C6}" name="Unit cost" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6D4B3BEE-02FF-8A4C-B169-44A6CECB0E18}" name="Lifecycle status" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{923E1ADB-9518-3D40-B106-467A9B15DBAE}" name="Footprint" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0E716DA4-42E5-AB4F-B606-C4F424941A6A}" name="Justification" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
-  <dimension ref="C2:I29"/>
+  <dimension ref="C2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,7 +849,7 @@
   <sheetData>
     <row r="2" spans="3:9" ht="100" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="17" x14ac:dyDescent="0.2">
@@ -908,7 +877,7 @@
     </row>
     <row r="5" spans="3:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -922,22 +891,22 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
@@ -945,311 +914,299 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="11"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>56</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>73</v>
-      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="D18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1258,37 +1215,35 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="11"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1297,9 +1252,11 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1308,10 +1265,10 @@
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="5"/>
@@ -1319,40 +1276,27 @@
       <c r="H27" s="5"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C28" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/fLoRa/flora-hardware/PCB References/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39318DB-3F95-4F4A-94A5-386D162CADB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85490C7A-8920-FC45-AB35-CE5BD8295018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55200" yWindow="500" windowWidth="16800" windowHeight="18960" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>Required Part</t>
   </si>
@@ -139,9 +139,6 @@
     </r>
   </si>
   <si>
-    <t>Usb Port</t>
-  </si>
-  <si>
     <t>Mounting hardware</t>
   </si>
   <si>
@@ -267,19 +264,6 @@
     <t>Post PCB</t>
   </si>
   <si>
-    <t>Right angle SMT micro USB</t>
-  </si>
-  <si>
-    <t>Mouser - PN:649-10118192-0001LF
-Digikey - PN:2073-USB3065-30-00-ATR-ND</t>
-  </si>
-  <si>
-    <t>SMT Right angle</t>
-  </si>
-  <si>
-    <t>Same as what is used on the ESP32 dev board</t>
-  </si>
-  <si>
     <t>Solder connection</t>
   </si>
   <si>
@@ -307,10 +291,6 @@
   </si>
   <si>
     <t>Chose cheap and highly available SD card port from mouser and digi-key</t>
-  </si>
-  <si>
-    <t>$0.6
-$0.72</t>
   </si>
   <si>
     <t>Solar Panel  W. incorporated charge controller</t>
@@ -333,6 +313,9 @@
   </si>
   <si>
     <t>Settled on the ESP32-S3 due to its wifi capabilty and sleep functionaly in a cheap all in one package, There is also an abundance in documentation for developing porjects within the esp32 framework. Decided on the S# as it has plenty of Spare GPIO for future expansion and will need the extra power to support the web-app</t>
+  </si>
+  <si>
+    <t>THT pin headers</t>
   </si>
 </sst>
 </file>
@@ -413,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -447,6 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="C4:I28" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="C4:I27" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{AA1ED68A-0EA8-DA4A-A975-671249790F42}" name="Required Part" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="5"/>
@@ -826,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
-  <dimension ref="C2:I28"/>
+  <dimension ref="C2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,22 +877,22 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
@@ -914,22 +900,22 @@
         <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="51" x14ac:dyDescent="0.2">
@@ -937,22 +923,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
@@ -971,22 +957,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="34" x14ac:dyDescent="0.2">
@@ -994,22 +980,22 @@
         <v>12</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
@@ -1017,16 +1003,16 @@
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="3"/>
@@ -1036,43 +1022,43 @@
         <v>17</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="I13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
@@ -1080,22 +1066,22 @@
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
@@ -1114,22 +1100,22 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="34" x14ac:dyDescent="0.2">
@@ -1137,63 +1123,63 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>66</v>
-      </c>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1202,37 +1188,35 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="11"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1241,9 +1225,11 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="E25" s="11"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1252,10 +1238,10 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -1263,40 +1249,27 @@
       <c r="H26" s="5"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8a7dff0b441a3a2/Documents/GitHub/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85490C7A-8920-FC45-AB35-CE5BD8295018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{85490C7A-8920-FC45-AB35-CE5BD8295018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5DCF44-3EAA-4799-B05C-54D9C74FCFC5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>Required Part</t>
   </si>
@@ -317,15 +317,18 @@
   <si>
     <t>THT pin headers</t>
   </si>
+  <si>
+    <t>Link</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,7 +422,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,7 +441,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -480,16 +486,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:I27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="C4:I27" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{AA1ED68A-0EA8-DA4A-A975-671249790F42}" name="Required Part" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{6CD0E10F-F0BB-F04F-8AEE-C857709CD28E}" name="Vendors" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{39DF0144-5FC6-374B-AE96-8AFBF164D8C6}" name="Unit cost" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6D4B3BEE-02FF-8A4C-B169-44A6CECB0E18}" name="Lifecycle status" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{923E1ADB-9518-3D40-B106-467A9B15DBAE}" name="Footprint" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{0E716DA4-42E5-AB4F-B606-C4F424941A6A}" name="Justification" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}" name="Table2" displayName="Table2" ref="C4:J27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="C4:J27" xr:uid="{496DEDA1-634E-7744-807B-3B8C6033FF4D}"/>
+  <tableColumns count="8">
+    <tableColumn id="2" xr3:uid="{AA1ED68A-0EA8-DA4A-A975-671249790F42}" name="Required Part" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{6CD0E10F-F0BB-F04F-8AEE-C857709CD28E}" name="Vendors" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{39DF0144-5FC6-374B-AE96-8AFBF164D8C6}" name="Unit cost" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A6916FFA-A760-4821-8413-EAD8607822E2}" name="Link" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{6D4B3BEE-02FF-8A4C-B169-44A6CECB0E18}" name="Lifecycle status" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{923E1ADB-9518-3D40-B106-467A9B15DBAE}" name="Footprint" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{0E716DA4-42E5-AB4F-B606-C4F424941A6A}" name="Justification" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,13 +819,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
-  <dimension ref="C2:I27"/>
+  <dimension ref="C2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="0.33203125" customWidth="1"/>
@@ -826,19 +833,19 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="64.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="68.25" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="69" customWidth="1"/>
     <col min="10" max="10" width="38.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="100" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:10" ht="111.5">
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:10">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,16 +859,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:10" ht="22" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -871,8 +881,9 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="3:9" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="3:10" ht="79" customHeight="1">
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
@@ -885,17 +896,18 @@
       <c r="F6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:10" ht="96">
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -908,17 +920,18 @@
       <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:10" ht="80">
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
@@ -931,17 +944,18 @@
       <c r="F8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:10">
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
@@ -950,9 +964,10 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I9" s="5"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="3:10" ht="48">
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
@@ -965,17 +980,18 @@
       <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:10" ht="48">
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
@@ -988,17 +1004,18 @@
       <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:10">
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1011,13 +1028,14 @@
       <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="3:10" ht="32">
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1030,17 +1048,18 @@
       <c r="F13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:10" ht="32">
       <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1053,15 +1072,16 @@
       <c r="F14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:10" ht="32">
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1074,17 +1094,18 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:10">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1093,9 +1114,10 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I16" s="5"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="3:10" ht="32">
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1108,17 +1130,18 @@
       <c r="F17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" ht="32">
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1131,17 +1154,18 @@
       <c r="F18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10">
       <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
@@ -1154,15 +1178,16 @@
       <c r="F19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1171,9 +1196,10 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="5"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="3:10">
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1184,9 +1210,10 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="5"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="3:10">
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1198,8 +1225,9 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="3:10">
       <c r="C23" s="5" t="s">
         <v>71</v>
       </c>
@@ -1210,9 +1238,10 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="5"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="3:10">
       <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1221,9 +1250,10 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="3:10">
       <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1234,9 +1264,10 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="5"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="3:10">
       <c r="C26" s="5" t="s">
         <v>26</v>
       </c>
@@ -1247,9 +1278,10 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="I26" s="5"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="3:10" ht="32">
       <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
@@ -1262,13 +1294,14 @@
       <c r="F27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>70</v>
       </c>
     </row>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8a7dff0b441a3a2/Documents/GitHub/flora-hardware/PCB References/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/fLoRa/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{85490C7A-8920-FC45-AB35-CE5BD8295018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5DCF44-3EAA-4799-B05C-54D9C74FCFC5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B360BDF6-5118-D248-9D11-48712131F403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>Required Part</t>
   </si>
@@ -320,15 +320,51 @@
   <si>
     <t>Link</t>
   </si>
+  <si>
+    <t>Volatge Regulator Options</t>
+  </si>
+  <si>
+    <t>TPS78533QWDRBRQ1</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/TPS78533QWDRBRQ1?qs=iLbezkQI%252BsiNbdqh2Ko9GQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/tps78533qwdrbrq1/14123967</t>
+  </si>
+  <si>
+    <t>Mouser lInk</t>
+  </si>
+  <si>
+    <t>Digi Link</t>
+  </si>
+  <si>
+    <t>LM1117MP-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/LM1117MP-3-3-NOPB/304882</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Texas-Instruments/LM1117MP-3.3-NOPB?qs=X1J7HmVL2ZFn4x9DZ4T2hA%3D%3D</t>
+  </si>
+  <si>
+    <t>LDL1117S33R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/LDL1117S33R/7102071</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/STMicroelectronics/LDL1117S33R?qs=AQlKX63v8Rt9Bf6AWSrbFg%3D%3D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +414,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -422,7 +464,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -437,6 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +536,10 @@
     <tableColumn id="3" xr3:uid="{1AB0C512-AD43-A248-99EF-7F6AAA8DD53F}" name="Proposed Component" dataDxfId="6"/>
     <tableColumn id="15" xr3:uid="{6CD0E10F-F0BB-F04F-8AEE-C857709CD28E}" name="Vendors" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{39DF0144-5FC6-374B-AE96-8AFBF164D8C6}" name="Unit cost" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{A6916FFA-A760-4821-8413-EAD8607822E2}" name="Link" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{6D4B3BEE-02FF-8A4C-B169-44A6CECB0E18}" name="Lifecycle status" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{923E1ADB-9518-3D40-B106-467A9B15DBAE}" name="Footprint" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{0E716DA4-42E5-AB4F-B606-C4F424941A6A}" name="Justification" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A6916FFA-A760-4821-8413-EAD8607822E2}" name="Link" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6D4B3BEE-02FF-8A4C-B169-44A6CECB0E18}" name="Lifecycle status" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{923E1ADB-9518-3D40-B106-467A9B15DBAE}" name="Footprint" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0E716DA4-42E5-AB4F-B606-C4F424941A6A}" name="Justification" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -819,13 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
-  <dimension ref="C2:J27"/>
+  <dimension ref="C2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="0.33203125" customWidth="1"/>
@@ -833,19 +876,19 @@
     <col min="4" max="4" width="27.5" customWidth="1"/>
     <col min="5" max="5" width="64.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="68.25" customWidth="1"/>
+    <col min="7" max="7" width="68.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" customWidth="1"/>
     <col min="9" max="9" width="69" customWidth="1"/>
     <col min="10" max="10" width="38.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="111.5">
+    <row r="2" spans="3:10" ht="100" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="3:10" ht="17" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="22" customHeight="1">
+    <row r="5" spans="3:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -883,7 +926,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="3:10" ht="79" customHeight="1">
+    <row r="6" spans="3:10" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
@@ -907,7 +950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="96">
+    <row r="7" spans="3:10" ht="102" x14ac:dyDescent="0.2">
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -931,7 +974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="80">
+    <row r="8" spans="3:10" ht="85" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
@@ -955,7 +998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
         <v>19</v>
       </c>
@@ -967,7 +1010,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="3:10" ht="48">
+    <row r="10" spans="3:10" ht="51" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
@@ -991,7 +1034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="48">
+    <row r="11" spans="3:10" ht="51" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1078,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="3:10" ht="32">
+    <row r="13" spans="3:10" ht="34" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="32">
+    <row r="14" spans="3:10" ht="34" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1081,7 +1124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="32">
+    <row r="15" spans="3:10" ht="34" x14ac:dyDescent="0.2">
       <c r="C15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1105,7 +1148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C16" s="7" t="s">
         <v>14</v>
       </c>
@@ -1117,7 +1160,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="3:10" ht="32">
+    <row r="17" spans="3:10" ht="34" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="32">
+    <row r="18" spans="3:10" ht="34" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1165,7 +1208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
         <v>72</v>
       </c>
@@ -1187,7 +1230,7 @@
       </c>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
@@ -1199,7 +1242,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1213,7 +1256,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
@@ -1227,7 +1270,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
         <v>71</v>
       </c>
@@ -1241,7 +1284,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
@@ -1253,7 +1296,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1310,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C26" s="5" t="s">
         <v>26</v>
       </c>
@@ -1281,7 +1324,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="3:10" ht="32">
+    <row r="27" spans="3:10" ht="34" x14ac:dyDescent="0.2">
       <c r="C27" s="5" t="s">
         <v>44</v>
       </c>
@@ -1303,6 +1346,50 @@
       </c>
       <c r="J27" s="5" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="C31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/Documents/fLoRa/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B360BDF6-5118-D248-9D11-48712131F403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D811A-F8BE-124C-BC38-6B5180810F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19560" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
   <dimension ref="C2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,7 +1344,7 @@
       <c r="I27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="6" t="s">
         <v>70</v>
       </c>
     </row>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85490C7A-8920-FC45-AB35-CE5BD8295018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14E765-A683-9A49-B585-031298060D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
@@ -207,24 +207,10 @@
     <t>SD Card Holder</t>
   </si>
   <si>
-    <t xml:space="preserve"> Red SMT 0805 led</t>
-  </si>
-  <si>
     <t>0805 SMT Reverse mount</t>
   </si>
   <si>
     <t>Button</t>
-  </si>
-  <si>
-    <t>Mouser - PN:710-150080RS75000
-Digi-key - PN:L62501TR-ND - Tape &amp; Reel (TR)</t>
-  </si>
-  <si>
-    <t>$0.28
-$0.88</t>
-  </si>
-  <si>
-    <t>Chose cheap and highly available red LED from mouser and digi-key</t>
   </si>
   <si>
     <t>General Purpose SMT Transistor</t>
@@ -316,6 +302,20 @@
   </si>
   <si>
     <t>THT pin headers</t>
+  </si>
+  <si>
+    <t>Standard RGB LED IN neopixel package</t>
+  </si>
+  <si>
+    <t>Mouser - PN:710-150505M173300
+Digi-key - PN:732-12000-2-ND</t>
+  </si>
+  <si>
+    <t>$0.91
+$0.95</t>
+  </si>
+  <si>
+    <t>Chose cheap and highly available RGB LED from mouser and digi-key</t>
   </si>
 </sst>
 </file>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAF2EB-E1BD-ED46-BCB0-EFDA7469991B}">
   <dimension ref="C2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>21</v>
@@ -892,7 +892,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
         <v>27</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="51" x14ac:dyDescent="0.2">
@@ -1021,44 +1021,44 @@
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="I13" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="34" x14ac:dyDescent="0.2">
@@ -1066,22 +1066,22 @@
         <v>20</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="G15" s="5" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
@@ -1100,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>40</v>
@@ -1112,10 +1112,10 @@
         <v>40</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="34" x14ac:dyDescent="0.2">
@@ -1123,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>40</v>
@@ -1135,18 +1135,18 @@
         <v>40</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>40</v>
@@ -1158,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -1178,7 +1178,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -1191,7 +1191,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="5"/>
@@ -1228,7 +1228,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="5"/>
@@ -1241,7 +1241,7 @@
         <v>26</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="5"/>
@@ -1254,22 +1254,22 @@
         <v>44</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/PCB References/Hardware Overview.xlsx
+++ b/PCB References/Hardware Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cam/flora-hardware/PCB References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F14E765-A683-9A49-B585-031298060D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E36F79-C6AD-8E42-9D26-73A5E793523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{FAAE8C0D-E5AB-0842-9D3D-EA3BC991139B}"/>
   </bookViews>
